--- a/CseReechecking.xlsx
+++ b/CseReechecking.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aneesha\Documents\GitHub\PavithraProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A25B4C95-C5BA-4B83-89A9-C0703682E182}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AF9B3C7-2EC3-4206-A3EB-9B361039CEED}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/CseReechecking.xlsx
+++ b/CseReechecking.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aneesha\Documents\GitHub\PavithraProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AF9B3C7-2EC3-4206-A3EB-9B361039CEED}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A3BAD59-9018-433D-9A5D-56F1F6812193}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -525,7 +525,7 @@
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
